--- a/excel/officereport_temp.xlsx
+++ b/excel/officereport_temp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,17 +11,13 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="169">
   <si>
-    <t>2017年任务指标 单位：万元</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>区域</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -32,30 +28,6 @@
   <si>
     <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年订单任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年已完成订货</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年订单任务完成比例</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年出货任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年已完成出货</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年出货任务完成比例</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>工业项目组</t>
@@ -611,6 +583,34 @@
   </si>
   <si>
     <t>&lt;%~_data_[1].成都%&gt;</t>
+  </si>
+  <si>
+    <t>2018年任务指标 单位：万元</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年订单任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年已完成订货</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年订单任务完成比例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年出货任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年已完成出货</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年出货任务完成比例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1198,7 +1198,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -1211,58 +1211,54 @@
     </row>
     <row r="2" spans="1:9" ht="48" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2000</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F3" s="9" t="e">
         <f>E3/D3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G3" s="7">
-        <v>2000</v>
-      </c>
+      <c r="G3" s="7"/>
       <c r="H3" s="33" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I3" s="10" t="e">
         <f>H3/G3</f>
@@ -1271,29 +1267,25 @@
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7">
-        <v>500</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="33" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F4" s="9" t="e">
         <f t="shared" ref="F4:F12" si="0">E4/D4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G4" s="7">
-        <v>500</v>
-      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="33" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I4" s="10" t="e">
         <f t="shared" ref="I4:I12" si="1">H4/G4</f>
@@ -1302,29 +1294,25 @@
     </row>
     <row r="5" spans="1:9" ht="20.25" customHeight="1">
       <c r="A5" s="34" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="11">
-        <v>5000</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D5" s="11"/>
       <c r="E5" s="33" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F5" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G5" s="11">
-        <v>4500</v>
-      </c>
+      <c r="G5" s="11"/>
       <c r="H5" s="33" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I5" s="13" t="e">
         <f t="shared" si="1"/>
@@ -1334,26 +1322,22 @@
     <row r="6" spans="1:9" ht="20.25" customHeight="1">
       <c r="A6" s="34"/>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="11">
-        <v>3000</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D6" s="11"/>
       <c r="E6" s="33" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F6" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G6" s="11">
-        <v>3000</v>
-      </c>
+      <c r="G6" s="11"/>
       <c r="H6" s="33" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I6" s="13" t="e">
         <f t="shared" si="1"/>
@@ -1363,26 +1347,22 @@
     <row r="7" spans="1:9" ht="20.25" customHeight="1">
       <c r="A7" s="34"/>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1500</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D7" s="11"/>
       <c r="E7" s="33" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F7" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="11">
-        <v>1000</v>
-      </c>
+      <c r="G7" s="11"/>
       <c r="H7" s="33" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I7" s="13" t="e">
         <f t="shared" si="1"/>
@@ -1392,26 +1372,22 @@
     <row r="8" spans="1:9" ht="20.25" customHeight="1">
       <c r="A8" s="34"/>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="11">
-        <v>3500</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="33" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F8" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G8" s="11">
-        <v>4000</v>
-      </c>
+      <c r="G8" s="11"/>
       <c r="H8" s="33" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I8" s="13" t="e">
         <f t="shared" si="1"/>
@@ -1421,26 +1397,22 @@
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="11">
-        <v>800</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D9" s="11"/>
       <c r="E9" s="33" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F9" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G9" s="11">
-        <v>500</v>
-      </c>
+      <c r="G9" s="11"/>
       <c r="H9" s="33" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I9" s="13" t="e">
         <f t="shared" si="1"/>
@@ -1450,15 +1422,12 @@
     <row r="10" spans="1:9" s="15" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="34"/>
       <c r="B10" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="7">
-        <f>D5+D6+D7+D8+D9</f>
-        <v>13800</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="8" t="e">
         <f>E5+E6+E7+E8+E9</f>
         <v>#VALUE!</v>
@@ -1467,10 +1436,7 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G10" s="7">
-        <f t="shared" ref="G10:H10" si="2">SUM(G5:G9)</f>
-        <v>13000</v>
-      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="8" t="e">
         <f>H5+H6+H7+H8+H9</f>
         <v>#VALUE!</v>
@@ -1482,29 +1448,25 @@
     </row>
     <row r="11" spans="1:9" ht="20.25" customHeight="1">
       <c r="A11" s="34" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="11">
-        <v>5200</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D11" s="11"/>
       <c r="E11" s="33" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F11" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G11" s="17">
-        <v>4700</v>
-      </c>
+      <c r="G11" s="17"/>
       <c r="H11" s="33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I11" s="13" t="e">
         <f t="shared" si="1"/>
@@ -1514,26 +1476,22 @@
     <row r="12" spans="1:9" ht="20.25" customHeight="1">
       <c r="A12" s="34"/>
       <c r="B12" s="18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="11">
-        <v>3300</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D12" s="11"/>
       <c r="E12" s="33" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F12" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G12" s="17">
-        <v>3000</v>
-      </c>
+      <c r="G12" s="17"/>
       <c r="H12" s="33" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I12" s="13" t="e">
         <f t="shared" si="1"/>
@@ -1543,26 +1501,22 @@
     <row r="13" spans="1:9" ht="20.25" customHeight="1">
       <c r="A13" s="34"/>
       <c r="B13" s="18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="11">
-        <v>2500</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D13" s="11"/>
       <c r="E13" s="33" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F13" s="12" t="e">
         <f>(E13+E14)/D13</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G13" s="17">
-        <v>2300</v>
-      </c>
+      <c r="G13" s="17"/>
       <c r="H13" s="33" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I13" s="13" t="e">
         <f>(H13+H14)/G13</f>
@@ -1573,31 +1527,28 @@
       <c r="A14" s="34"/>
       <c r="B14" s="18"/>
       <c r="C14" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="33" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="17"/>
       <c r="H14" s="33" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" s="15" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="34"/>
       <c r="B15" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="19">
-        <f>D11+D12+D13+D14</f>
-        <v>11000</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="8" t="e">
         <f>E11+E12+E13+E14</f>
         <v>#VALUE!</v>
@@ -1606,10 +1557,7 @@
         <f>E15/D15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G15" s="7">
-        <f>SUM(G11:G14)</f>
-        <v>10000</v>
-      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="8" t="e">
         <f>H11+H12+H13+H14</f>
         <v>#VALUE!</v>
@@ -1621,546 +1569,466 @@
     </row>
     <row r="16" spans="1:9" ht="20.25" customHeight="1">
       <c r="A16" s="34" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="11">
-        <v>2800</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D16" s="11"/>
       <c r="E16" s="33" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F16" s="12" t="e">
-        <f t="shared" ref="F16:F32" si="3">E16/D16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G16" s="11">
-        <v>2800</v>
-      </c>
+        <f t="shared" ref="F16:F32" si="2">E16/D16</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G16" s="11"/>
       <c r="H16" s="33" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I16" s="13" t="e">
-        <f t="shared" ref="I16:I32" si="4">H16/G16</f>
+        <f t="shared" ref="I16:I32" si="3">H16/G16</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.25" customHeight="1">
       <c r="A17" s="34"/>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="11">
-        <v>2000</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D17" s="11"/>
       <c r="E17" s="33" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F17" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G17" s="11">
-        <v>1500</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="I17" s="13" t="e">
-        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20.25" customHeight="1">
       <c r="A18" s="34"/>
       <c r="B18" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="11">
-        <v>1200</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="33" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F18" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G18" s="11">
-        <v>1200</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="13" t="e">
-        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="15" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="34"/>
       <c r="B19" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="19">
-        <f>SUM(D16:D18)</f>
-        <v>6000</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="8">
         <f>SUM(E16:E18)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <f>SUM(G16:G18)</f>
-        <v>5500</v>
-      </c>
+      <c r="F19" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="8">
         <f>SUM(H16:H18)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="I19" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20.25" customHeight="1">
       <c r="A20" s="34" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="11">
-        <v>4300</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D20" s="11"/>
       <c r="E20" s="33" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F20" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G20" s="11">
-        <v>4000</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="I20" s="13" t="e">
-        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.25" customHeight="1">
       <c r="A21" s="34"/>
       <c r="B21" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="11">
-        <v>2700</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D21" s="11"/>
       <c r="E21" s="33" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F21" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G21" s="11">
-        <v>2000</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" s="13" t="e">
-        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20.25" customHeight="1">
       <c r="A22" s="34"/>
       <c r="B22" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="11">
-        <v>2800</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D22" s="11"/>
       <c r="E22" s="33" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F22" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G22" s="11">
-        <v>2000</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I22" s="13" t="e">
-        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20.25" customHeight="1">
       <c r="A23" s="34"/>
       <c r="B23" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="11">
-        <v>2200</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D23" s="11"/>
       <c r="E23" s="33" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F23" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="I23" s="13" t="e">
-        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="15" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="34"/>
       <c r="B24" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="19">
-        <f>SUM(D20:D23)</f>
-        <v>12000</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D24" s="19"/>
       <c r="E24" s="8">
         <f>SUM(E20:E23)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <f>SUM(G20:G23)</f>
-        <v>10000</v>
-      </c>
+      <c r="F24" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="7"/>
       <c r="H24" s="8">
         <f>SUM(H20:H23)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="I24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1">
       <c r="A25" s="34" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="11">
-        <v>8000</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="33" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F25" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G25" s="11">
-        <v>6000</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="I25" s="13" t="e">
-        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="15" customFormat="1" ht="24" customHeight="1">
       <c r="A26" s="34"/>
       <c r="B26" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="19">
-        <f>SUM(D25)</f>
-        <v>8000</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D26" s="19"/>
       <c r="E26" s="8">
         <f>SUM(E25)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
-        <f>SUM(G25)</f>
-        <v>6000</v>
-      </c>
+      <c r="F26" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="7"/>
       <c r="H26" s="8">
         <f>SUM(H25)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="I26" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20.25" customHeight="1">
       <c r="A27" s="34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="11">
-        <v>5500</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="33" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F27" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G27" s="11">
-        <v>4800</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="I27" s="13" t="e">
-        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20.25" customHeight="1">
       <c r="A28" s="34"/>
       <c r="B28" s="18" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="11">
-        <v>3500</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D28" s="11"/>
       <c r="E28" s="33" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F28" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G28" s="11">
-        <v>2700</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="I28" s="13" t="e">
-        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="15" customFormat="1" ht="20.25" customHeight="1">
       <c r="A29" s="34"/>
       <c r="B29" s="20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="19">
-        <f>SUM(D27:D28)</f>
-        <v>9000</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D29" s="19"/>
       <c r="E29" s="8">
         <f>SUM(E27:E28)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <f>SUM(G27:G28)</f>
-        <v>7500</v>
-      </c>
+      <c r="F29" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="7"/>
       <c r="H29" s="8">
         <f>SUM(H27:H28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="I29" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20.25" customHeight="1">
       <c r="A30" s="34" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="11">
-        <v>4800</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D30" s="11"/>
       <c r="E30" s="33" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F30" s="12" t="e">
         <f>E30/D30</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G30" s="11">
-        <v>4800</v>
-      </c>
+      <c r="G30" s="11"/>
       <c r="H30" s="33" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I30" s="13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20.25" customHeight="1">
       <c r="A31" s="34"/>
       <c r="B31" s="18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="11">
-        <v>2200</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D31" s="11"/>
       <c r="E31" s="33" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F31" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="I31" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G31" s="11">
-        <v>1500</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="I31" s="13" t="e">
-        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20.25" customHeight="1">
       <c r="A32" s="34"/>
       <c r="B32" s="18" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="11">
-        <v>2800</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D32" s="11"/>
       <c r="E32" s="33" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F32" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="13" t="e">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G32" s="11">
-        <v>2600</v>
-      </c>
-      <c r="H32" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="I32" s="13" t="e">
-        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20.25" customHeight="1">
       <c r="A33" s="34"/>
       <c r="B33" s="18" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="11">
-        <v>5000</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D33" s="11"/>
       <c r="E33" s="33" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F33" s="12" t="e">
         <f>(E33+E34)/D33</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G33" s="11">
-        <v>4500</v>
-      </c>
+      <c r="G33" s="11"/>
       <c r="H33" s="33" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I33" s="13" t="e">
         <f>(H33+H34)/G33</f>
@@ -2170,45 +2038,41 @@
     <row r="34" spans="1:9" ht="20.25" customHeight="1">
       <c r="A34" s="34"/>
       <c r="B34" s="18" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="33" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="11"/>
       <c r="H34" s="33" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" ht="20.25" customHeight="1">
       <c r="A35" s="34"/>
       <c r="B35" s="18" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="11">
-        <v>1700</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D35" s="11"/>
       <c r="E35" s="33" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F35" s="12" t="e">
         <f>E35/D35</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G35" s="11">
-        <v>1600</v>
-      </c>
+      <c r="G35" s="11"/>
       <c r="H35" s="33" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I35" s="13" t="e">
         <f>H35/G35</f>
@@ -2218,397 +2082,343 @@
     <row r="36" spans="1:9" s="15" customFormat="1" ht="20.25" customHeight="1">
       <c r="A36" s="34"/>
       <c r="B36" s="20" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="19">
-        <f>SUM(D30:D35)</f>
-        <v>16500</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D36" s="19"/>
       <c r="E36" s="8">
         <f>SUM(E30:E35)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="9" t="e">
         <f>E36/D36</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="7">
-        <f>SUM(G30:G35)</f>
-        <v>15000</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="7"/>
       <c r="H36" s="8">
         <f>SUM(H30:H35)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="13">
-        <f t="shared" ref="I36:I48" si="5">H36/G36</f>
-        <v>0</v>
+      <c r="I36" s="13" t="e">
+        <f t="shared" ref="I36:I48" si="4">H36/G36</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="20.25" customHeight="1">
       <c r="A37" s="34" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="11">
-        <v>4500</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D37" s="11"/>
       <c r="E37" s="33" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F37" s="12" t="e">
-        <f t="shared" ref="F37:F48" si="6">E37/D37</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G37" s="11">
-        <v>4400</v>
-      </c>
+        <f t="shared" ref="F37:F48" si="5">E37/D37</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G37" s="11"/>
       <c r="H37" s="33" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I37" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20.25" customHeight="1">
       <c r="A38" s="34"/>
       <c r="B38" s="18" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="11">
-        <v>2700</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D38" s="11"/>
       <c r="E38" s="33" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F38" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G38" s="11">
-        <v>2500</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G38" s="11"/>
       <c r="H38" s="33" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I38" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20.25" customHeight="1">
       <c r="A39" s="34"/>
       <c r="B39" s="18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="11">
-        <v>3300</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D39" s="11"/>
       <c r="E39" s="33" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F39" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G39" s="11">
-        <v>3100</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G39" s="11"/>
       <c r="H39" s="33" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I39" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20.25" customHeight="1">
       <c r="A40" s="34"/>
       <c r="B40" s="18" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="11">
-        <v>2300</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D40" s="11"/>
       <c r="E40" s="33" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F40" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G40" s="11">
-        <v>2200</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="33" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I40" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20.25" customHeight="1">
       <c r="A41" s="34"/>
       <c r="B41" s="18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="11">
-        <v>2300</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D41" s="11"/>
       <c r="E41" s="33" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F41" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G41" s="11">
-        <v>2300</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G41" s="11"/>
       <c r="H41" s="33" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I41" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20.25" customHeight="1">
       <c r="A42" s="34"/>
       <c r="B42" s="18" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="11">
-        <v>2400</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D42" s="11"/>
       <c r="E42" s="33" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F42" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G42" s="11">
-        <v>2200</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G42" s="11"/>
       <c r="H42" s="33" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I42" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="20.25" customHeight="1">
       <c r="A43" s="34"/>
       <c r="B43" s="21" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="11">
-        <v>2000</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D43" s="11"/>
       <c r="E43" s="33" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F43" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G43" s="11">
-        <v>1800</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G43" s="11"/>
       <c r="H43" s="33" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I43" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="15" customFormat="1" ht="20.25" customHeight="1">
       <c r="A44" s="34"/>
       <c r="B44" s="20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="19">
-        <f>SUM(D37:D43)</f>
-        <v>19500</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D44" s="19"/>
       <c r="E44" s="8">
         <f>SUM(E37:E43)</f>
         <v>0</v>
       </c>
-      <c r="F44" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="7">
-        <f>SUM(G37:G43)</f>
-        <v>18500</v>
-      </c>
+      <c r="F44" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="7"/>
       <c r="H44" s="8">
         <f>SUM(H37:H43)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="I44" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="20.25" customHeight="1">
       <c r="A45" s="34" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="11">
-        <v>4000</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D45" s="11"/>
       <c r="E45" s="33" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F45" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G45" s="11">
-        <v>3000</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G45" s="11"/>
       <c r="H45" s="33" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I45" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="20.25" customHeight="1">
       <c r="A46" s="34"/>
       <c r="B46" s="18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="11">
-        <v>6000</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D46" s="11"/>
       <c r="E46" s="33" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F46" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G46" s="11">
-        <v>7000</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G46" s="11"/>
       <c r="H46" s="33" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I46" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="15" customFormat="1" ht="20.25" customHeight="1">
       <c r="A47" s="34"/>
       <c r="B47" s="20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="19">
-        <f>SUM(D45:D46)</f>
-        <v>10000</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D47" s="19"/>
       <c r="E47" s="8">
         <f>SUM(E45:E46)</f>
         <v>0</v>
       </c>
-      <c r="F47" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="7">
-        <f>SUM(G45:G46)</f>
-        <v>10000</v>
-      </c>
+      <c r="F47" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="7"/>
       <c r="H47" s="8">
         <f>SUM(H45:H46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="I47" s="13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="15" customFormat="1" ht="20.25" customHeight="1">
       <c r="A48" s="35" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B48" s="35"/>
       <c r="C48" s="22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D48" s="19">
         <f>D47+D44+D36+D29+D26+D24+D19+D15+D10+D4+D3</f>
-        <v>108300</v>
+        <v>0</v>
       </c>
       <c r="E48" s="23" t="e">
         <f>E47+E44+E36+E29+E26+E24+E19+E15+E10+E4+E3</f>
         <v>#VALUE!</v>
       </c>
       <c r="F48" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="G48" s="7">
         <f>G47+G44+G36+G29+G26+G24+G19+G15+G10+G4+G3</f>
-        <v>98000</v>
+        <v>0</v>
       </c>
       <c r="H48" s="23" t="e">
         <f>H47+H44+H36+H29+H26+H24+H19+H15+H10+H4+H3</f>
         <v>#VALUE!</v>
       </c>
       <c r="I48" s="13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
